--- a/utils/manual_analysis.xlsx
+++ b/utils/manual_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communitystudentiunina-my.sharepoint.com/personal/roberta_deluca2_unina_it/Documents/PhD/1.Research_activity/OSLO_dati_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betta\Documents\GitHub\DeVAIC\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2783" documentId="8_{7CFC8DCB-A33D-4EA3-91B6-00FA0CB807F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52EB7CD6-7E17-4EE5-8261-A54EA045712F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B086916D-C472-4AD1-A729-9640B21E6AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2166" yWindow="2166" windowWidth="15552" windowHeight="8904" xr2:uid="{7D22E189-3862-4AD2-96A2-3CB5F4BF7982}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="2" xr2:uid="{7D22E189-3862-4AD2-96A2-3CB5F4BF7982}"/>
   </bookViews>
   <sheets>
     <sheet name="GEMINI" sheetId="2" r:id="rId1"/>
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,12 +132,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -182,11 +176,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8984D45C-7AA0-47E6-BF2F-50D6B1CE23C9}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7309,7 +7303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4BC6FA-A66E-4894-9013-F0E9BD050107}">
   <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7329,7 +7323,7 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -10106,19 +10100,19 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" t="s">
-        <v>2</v>
-      </c>
-      <c r="F104" t="s">
+      <c r="B104" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="7" t="s">
         <v>2</v>
       </c>
       <c r="G104" t="s">
@@ -10133,19 +10127,19 @@
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D105" t="s">
-        <v>3</v>
-      </c>
-      <c r="E105" s="6" t="s">
+      <c r="D105" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="7" t="s">
         <v>3</v>
       </c>
       <c r="G105" t="s">
